--- a/biology/Zoologie/Geocrinia_victoriana/Geocrinia_victoriana.xlsx
+++ b/biology/Zoologie/Geocrinia_victoriana/Geocrinia_victoriana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geocrinia victoriana est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geocrinia victoriana est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud-Est de l'Australie[1],[2]. Elle se rencontre jusqu'à 1 500 m d'altitude dans le sud-est du Victoria et dans l'extrême Sud-Est de la Nouvelle-Galles du Sud.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud-Est de l'Australie,. Elle se rencontre jusqu'à 1 500 m d'altitude dans le sud-est du Victoria et dans l'extrême Sud-Est de la Nouvelle-Galles du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Geocrinia victoriana[3], une femelle, mesure 27 mm. Cette espèce a la face dorsale brun foncé tacheté de noirâtre. Sa tête est ornée de chaque côté d'une bande noire traversant l’œil. Le bas de son dos est marqué d'une grande tache triangulaire noire. Ses flancs et ses membres sont finement tachetés de blanc. Sa face ventrale est brun cuivré tacheté de blanchâtre et de brun foncé.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Geocrinia victoriana, une femelle, mesure 27 mm. Cette espèce a la face dorsale brun foncé tacheté de noirâtre. Sa tête est ornée de chaque côté d'une bande noire traversant l’œil. Le bas de son dos est marqué d'une grande tache triangulaire noire. Ses flancs et ses membres sont finement tachetés de blanc. Sa face ventrale est brun cuivré tacheté de blanchâtre et de brun foncé.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Warragul dans l’État de Victoria[3].
+Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Warragul dans l’État de Victoria.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1888 : Descriptions of two new Australian frogs. Annals and Magazine of Natural History, sér. 6, vol. 2, p. 142-143 (texte intégral).</t>
         </is>
